--- a/data/20190408/强策略.xlsx
+++ b/data/20190408/强策略.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="0" windowWidth="25060" windowHeight="15540" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="2300" windowWidth="25060" windowHeight="15540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
   <si>
     <t>三力转债</t>
   </si>
@@ -88,6 +88,10 @@
   </si>
   <si>
     <t>我要跟的就是120~130之间的一段。。。 6个月？？?</t>
+  </si>
+  <si>
+    <t>30个交易日？？？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -743,7 +747,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -867,6 +871,9 @@
       </c>
       <c r="D8">
         <v>4</v>
+      </c>
+      <c r="F8" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:7">
